--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vardaantyagi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slyst\Documents\555\GEDCOM\submission stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="21580" windowHeight="14980" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7332" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="202">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,6 +157,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Find marriage record for individual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -668,18 +672,12 @@
   </si>
   <si>
     <t>Work</t>
-  </si>
-  <si>
-    <t>Birth Before death of parents</t>
-  </si>
-  <si>
-    <t>hb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -742,7 +740,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,7 +927,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -955,13 +953,13 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,25 +971,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5795-419D-BE09-C3BBDA1361DE}"/>
             </c:ext>
@@ -1007,28 +1005,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-254774912"/>
-        <c:axId val="-258583376"/>
+        <c:axId val="-469478512"/>
+        <c:axId val="-469476192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-254774912"/>
+        <c:axId val="-469478512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-258583376"/>
+        <c:crossAx val="-469476192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-258583376"/>
+        <c:axId val="-469476192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,7 +1037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-254774912"/>
+        <c:crossAx val="-469478512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1050,14 +1048,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1083,13 +1081,13 @@
             <c:numRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,16 +1099,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2CBE-44F9-A43F-F19DA2381D0D}"/>
             </c:ext>
@@ -1126,28 +1124,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-353340000"/>
-        <c:axId val="-223068416"/>
+        <c:axId val="-467596544"/>
+        <c:axId val="-467594224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-353340000"/>
+        <c:axId val="-467596544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-223068416"/>
+        <c:crossAx val="-467594224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-223068416"/>
+        <c:axId val="-467594224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-353340000"/>
+        <c:crossAx val="-467596544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1169,7 +1167,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1946,19 +1944,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
+    <sheetView zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1972,83 +1970,83 @@
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
         <v>181</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" s="16" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>184</v>
-      </c>
       <c r="E4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D5" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
         <v>194</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
         <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2075,16 +2073,16 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2101,452 +2099,452 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2564,49 +2562,49 @@
       <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="7"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2627,9 +2625,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" s="13">
         <v>41542</v>
@@ -2646,9 +2644,9 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" s="13">
         <v>41548</v>
@@ -2671,9 +2669,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14">
@@ -2687,9 +2685,9 @@
       <c r="F17" s="15"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14">
@@ -2703,9 +2701,9 @@
       <c r="F18" s="15"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14">
@@ -2731,22 +2729,22 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B21" sqref="B21:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2775,18 +2773,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -2804,18 +2802,18 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -2833,18 +2831,18 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -2862,18 +2860,18 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2891,18 +2889,18 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -2920,21 +2918,44 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6">
+        <v>41549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2952,18 +2973,18 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -2975,18 +2996,18 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3004,28 +3025,28 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3039,21 +3060,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>41542</v>
       </c>
@@ -3088,7 +3109,7 @@
       </c>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>41548</v>
       </c>
@@ -3110,16 +3131,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3148,116 +3169,92 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3275,9 +3272,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3320,9 +3317,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3361,487 +3358,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C35" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>155</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slyst\Documents\555\GEDCOM\submission stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slyst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7332" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="208">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -672,6 +668,27 @@
   </si>
   <si>
     <t>Work</t>
+  </si>
+  <si>
+    <t>Birth Before death of parents</t>
+  </si>
+  <si>
+    <t>Integrating last second</t>
+  </si>
+  <si>
+    <t>Coding last second</t>
+  </si>
+  <si>
+    <t>Writing programs that don't integrate cleanly</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
+  </si>
+  <si>
+    <t>Order Siblings By Age</t>
+  </si>
+  <si>
+    <t>Getting ahead on US</t>
   </si>
 </sst>
 </file>
@@ -740,7 +757,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,7 +830,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -844,6 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1005,11 +1023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-469478512"/>
-        <c:axId val="-469476192"/>
+        <c:axId val="-254774912"/>
+        <c:axId val="-258583376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-469478512"/>
+        <c:axId val="-254774912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,14 +1037,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-469476192"/>
+        <c:crossAx val="-258583376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-469476192"/>
+        <c:axId val="-258583376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-469478512"/>
+        <c:crossAx val="-254774912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1102,7 +1120,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,11 +1142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-467596544"/>
-        <c:axId val="-467594224"/>
+        <c:axId val="-353340000"/>
+        <c:axId val="-223068416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-467596544"/>
+        <c:axId val="-353340000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,14 +1156,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-467594224"/>
+        <c:crossAx val="-223068416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-467594224"/>
+        <c:axId val="-223068416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-467596544"/>
+        <c:crossAx val="-353340000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1944,14 +1962,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+    <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" customWidth="1"/>
     <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
@@ -1970,83 +1988,83 @@
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
         <v>178</v>
       </c>
-      <c r="C3" t="s">
-        <v>179</v>
-      </c>
       <c r="D3" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>185</v>
-      </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" t="s">
         <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
         <v>191</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" t="s">
         <v>193</v>
-      </c>
-      <c r="E6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2088,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2104,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2118,13 +2136,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2132,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2146,13 +2164,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,13 +2178,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2174,13 +2192,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2188,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2202,13 +2220,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2216,13 +2234,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2230,13 +2248,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2244,13 +2262,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2258,13 +2276,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2272,13 +2290,13 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2286,13 +2304,13 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2300,13 +2318,13 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2314,13 +2332,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2328,13 +2346,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2342,13 +2360,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2356,13 +2374,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2370,13 +2388,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2384,13 +2402,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2398,13 +2416,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2412,13 +2430,13 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2426,13 +2444,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,13 +2458,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2454,13 +2472,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2468,13 +2486,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2482,13 +2500,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2496,13 +2514,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2510,13 +2528,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2524,13 +2542,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2538,13 +2556,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2558,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G16"/>
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2574,37 +2592,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2627,7 +2645,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="13">
         <v>41542</v>
@@ -2646,7 +2664,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="13">
         <v>41548</v>
@@ -2671,7 +2689,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14">
@@ -2687,7 +2705,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14">
@@ -2703,7 +2721,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14">
@@ -2726,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B24"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2775,16 +2793,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -2804,16 +2822,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -2833,16 +2851,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -2862,16 +2880,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -2891,16 +2909,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -2919,20 +2937,23 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2949,13 +2970,13 @@
         <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2978,13 +2999,13 @@
         <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -2992,22 +3013,28 @@
       <c r="F9">
         <v>200</v>
       </c>
+      <c r="G9">
+        <v>55</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
       <c r="I9" s="6">
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3025,9 +3052,19 @@
         <v>41549</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f>SUM(G2:G10)</f>
+        <v>170</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H2:H10)</f>
+        <v>545</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3036,17 +3073,42 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3060,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3102,19 +3164,25 @@
         <v>32</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17"/>
+        <v>170</v>
+      </c>
+      <c r="E2" s="17">
+        <v>545</v>
+      </c>
+      <c r="F2" s="9">
+        <f>D2/(E2/60)</f>
+        <v>18.715596330275229</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>41548</v>
       </c>
       <c r="B3" s="19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -3132,7 +3200,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3171,90 +3239,129 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>199</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="20">
+        <v>41556</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3358,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3370,475 +3477,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slyst\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="5F2DB6EEEAAC07CFF777C59A7E6A6F83317CF218" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{0C73EEB4-D542-42DE-9FA3-DC109DCE0DA6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9189" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="214">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -689,12 +690,30 @@
   </si>
   <si>
     <t>Getting ahead on US</t>
+  </si>
+  <si>
+    <t>List Deceased</t>
+  </si>
+  <si>
+    <t>List Living Married</t>
+  </si>
+  <si>
+    <t>Correct Gender for Role</t>
+  </si>
+  <si>
+    <t>Communicating changes</t>
+  </si>
+  <si>
+    <t>Using unique GEDCOM Files for each US</t>
+  </si>
+  <si>
+    <t>Integrating in order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1208,7 +1227,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1240,7 +1265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1309,7 +1340,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1368,7 +1405,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1431,7 +1474,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangular Callout 5"/>
+        <xdr:cNvPr id="6" name="Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1495,7 +1544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1558,7 +1613,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1622,7 +1683,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1959,22 +2026,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="5" width="20.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1991,7 +2058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2008,7 +2075,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2025,7 +2092,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -2042,7 +2109,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -2059,7 +2126,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2073,10 +2140,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2084,23 +2151,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.9296875" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2117,7 +2184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2131,7 +2198,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2145,7 +2212,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2159,7 +2226,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2173,7 +2240,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2187,7 +2254,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2201,7 +2268,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2215,7 +2282,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2229,7 +2296,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2243,7 +2310,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2257,7 +2324,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2271,7 +2338,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2285,7 +2352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2299,7 +2366,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2313,7 +2380,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2327,7 +2394,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2341,7 +2408,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2355,7 +2422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2369,7 +2436,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2383,7 +2450,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2397,7 +2464,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2411,7 +2478,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2425,7 +2492,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2439,7 +2506,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2453,7 +2520,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2467,7 +2534,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2481,7 +2548,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2495,7 +2562,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2509,7 +2576,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2523,7 +2590,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2537,7 +2604,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2551,7 +2618,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2573,54 +2640,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.9296875" style="7"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="3" max="3" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.9296875" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -2643,7 +2710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2662,7 +2729,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2687,7 +2754,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>165</v>
       </c>
@@ -2703,7 +2770,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>166</v>
       </c>
@@ -2719,7 +2786,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
@@ -2743,26 +2810,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="1" max="1" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" customWidth="1"/>
+    <col min="5" max="5" width="6.9296875" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" customWidth="1"/>
+    <col min="9" max="9" width="10.9296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2791,7 +2858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2820,7 +2887,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2849,7 +2916,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2878,7 +2945,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -2907,7 +2974,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -2936,7 +3003,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -2965,7 +3032,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -2994,7 +3061,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3023,7 +3090,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3052,7 +3119,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11">
         <f>SUM(G2:G10)</f>
         <v>170</v>
@@ -3062,51 +3129,51 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3119,24 +3186,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.9296875" style="2"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="4" max="4" width="7.06640625" customWidth="1"/>
+    <col min="5" max="5" width="6.9296875" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3156,7 +3223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>41542</v>
       </c>
@@ -3177,12 +3244,15 @@
         <v>18.715596330275229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>41548</v>
       </c>
       <c r="B3" s="19">
         <v>23</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -3196,19 +3266,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3237,7 +3307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3266,7 +3336,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3280,7 +3350,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3294,74 +3364,121 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I7" s="20">
+        <v>41562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" t="s">
-        <v>156</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3372,16 +3489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3408,6 +3525,28 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3417,16 +3556,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3453,6 +3592,28 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3462,20 +3623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>113</v>
       </c>
@@ -3486,7 +3647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3497,7 +3658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3508,7 +3669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3519,7 +3680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3530,7 +3691,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3541,7 +3702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3552,7 +3713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3563,7 +3724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3574,7 +3735,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3585,7 +3746,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3596,7 +3757,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -3607,7 +3768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -3618,7 +3779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -3629,7 +3790,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -3640,7 +3801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3651,7 +3812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3662,7 +3823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -3673,7 +3834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -3684,7 +3845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -3695,7 +3856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -3706,7 +3867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -3717,7 +3878,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -3728,7 +3889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3739,7 +3900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3750,7 +3911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -3761,7 +3922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -3772,7 +3933,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -3783,7 +3944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -3794,7 +3955,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -3805,7 +3966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3816,7 +3977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -3827,7 +3988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -3838,7 +3999,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -3849,7 +4010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -3860,7 +4021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -3871,7 +4032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -3882,7 +4043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -3893,7 +4054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -3904,7 +4065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -3915,7 +4076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -3926,7 +4087,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -3937,7 +4098,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>155</v>
       </c>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vardaantyagi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="71BCAB56F5799EE6D8EBB66A62AC849E514E62D5" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23040" windowHeight="15240" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="437" windowWidth="23040" windowHeight="15240" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -712,12 +713,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -746,6 +747,15 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -848,7 +858,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -880,6 +890,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -963,7 +981,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -989,13 +1007,13 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,25 +1025,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5795-419D-BE09-C3BBDA1361DE}"/>
             </c:ext>
@@ -1051,7 +1069,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1084,14 +1102,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1117,13 +1135,13 @@
             <c:numRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,16 +1153,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2CBE-44F9-A43F-F19DA2381D0D}"/>
             </c:ext>
@@ -1170,7 +1188,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1203,7 +1221,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1229,7 +1247,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1285,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1360,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1425,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1494,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1564,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1633,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1703,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,22 +2043,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2074,7 +2092,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2091,7 +2109,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -2108,7 +2126,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -2125,7 +2143,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2139,10 +2157,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2150,14 +2168,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -2166,7 +2184,7 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2197,7 +2215,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2211,7 +2229,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2239,7 +2257,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2253,7 +2271,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2267,7 +2285,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2281,7 +2299,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2295,7 +2313,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2309,7 +2327,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2323,7 +2341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2337,7 +2355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2365,7 +2383,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2379,7 +2397,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2393,7 +2411,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2407,7 +2425,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2435,7 +2453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2449,7 +2467,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2477,7 +2495,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2491,7 +2509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2505,7 +2523,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2519,7 +2537,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2533,7 +2551,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2547,7 +2565,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2561,7 +2579,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2575,7 +2593,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2589,7 +2607,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2603,7 +2621,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2617,7 +2635,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2639,54 +2657,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -2709,7 +2727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2728,7 +2746,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2753,7 +2771,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>165</v>
       </c>
@@ -2769,7 +2787,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>166</v>
       </c>
@@ -2785,7 +2803,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
@@ -2809,26 +2827,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2857,7 +2875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2886,7 +2904,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2944,7 +2962,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -2973,7 +2991,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3031,7 +3049,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3060,7 +3078,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3118,7 +3136,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11">
         <f>SUM(G2:G10)</f>
         <v>170</v>
@@ -3128,51 +3146,51 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3185,23 +3203,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
     <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>41542</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>18.715596330275229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>41548</v>
       </c>
@@ -3264,19 +3282,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3305,7 +3323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3334,7 +3352,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3377,7 +3395,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3420,7 +3438,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -3437,7 +3455,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -3451,60 +3469,60 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>204</v>
       </c>
@@ -3517,100 +3535,102 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11" style="24"/>
+    <col min="2" max="2" width="26.796875" style="24" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="24" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3621,16 +3641,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3659,7 +3679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -3670,7 +3690,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -3688,20 +3708,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>113</v>
       </c>
@@ -3712,7 +3732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3723,7 +3743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3734,7 +3754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3745,7 +3765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3756,7 +3776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3767,7 +3787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3778,7 +3798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3789,7 +3809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3800,7 +3820,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3811,7 +3831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3822,7 +3842,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -3833,7 +3853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -3844,7 +3864,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -3855,7 +3875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -3866,7 +3886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3877,7 +3897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3888,7 +3908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -3899,7 +3919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -3910,7 +3930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -3921,7 +3941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -3932,7 +3952,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -3943,7 +3963,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -3954,7 +3974,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3965,7 +3985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3976,7 +3996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -3987,7 +4007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -3998,7 +4018,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -4009,7 +4029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -4020,7 +4040,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -4031,7 +4051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -4042,7 +4062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -4053,7 +4073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -4064,7 +4084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -4075,7 +4095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -4086,7 +4106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -4097,7 +4117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -4108,7 +4128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -4119,7 +4139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -4130,7 +4150,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -4141,7 +4161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -4152,7 +4172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -4163,7 +4183,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>155</v>
       </c>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vardaantyagi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="95C124967119D58C1A5CB70E2C3913B13596791C" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{C11B710C-3E7D-4752-B331-C08EE9540B46}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22740" windowHeight="14420" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="22740" windowHeight="14417" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="217">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -689,9 +690,6 @@
   </si>
   <si>
     <t>Getting ahead on US</t>
-  </si>
-  <si>
-    <t>List Deceased</t>
   </si>
   <si>
     <t>List Living Married</t>
@@ -724,7 +722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -738,44 +736,53 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1014,7 +1021,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1040,13 +1047,13 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,25 +1065,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5795-419D-BE09-C3BBDA1361DE}"/>
             </c:ext>
@@ -1102,7 +1109,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1135,14 +1142,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1168,16 +1175,16 @@
             <c:numRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="m/d">
-                  <c:v>41575.0</c:v>
+                  <c:v>41575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,19 +1196,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2CBE-44F9-A43F-F19DA2381D0D}"/>
             </c:ext>
@@ -1227,7 +1234,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1260,7 +1267,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1286,7 +1293,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1331,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1406,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1471,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1540,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1610,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1679,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1749,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,22 +2089,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2114,7 +2121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2131,7 +2138,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -2182,7 +2189,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2196,10 +2203,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2207,14 +2214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -2223,7 +2230,7 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2240,7 +2247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2257,7 +2264,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2285,7 +2292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2299,7 +2306,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2347,7 +2354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2361,7 +2368,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2375,7 +2382,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2389,7 +2396,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>124</v>
       </c>
@@ -2400,7 +2407,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>125</v>
       </c>
@@ -2411,7 +2418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2439,7 +2446,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>129</v>
       </c>
@@ -2467,7 +2474,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -2489,7 +2496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -2500,7 +2507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>133</v>
       </c>
@@ -2511,7 +2518,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -2570,7 +2577,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2584,7 +2591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>139</v>
       </c>
@@ -2595,7 +2602,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2609,7 +2616,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2637,7 +2644,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>143</v>
       </c>
@@ -2648,7 +2655,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2662,7 +2669,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>145</v>
       </c>
@@ -2673,7 +2680,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2709,54 +2716,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -2779,7 +2786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2798,7 +2805,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>165</v>
       </c>
@@ -2839,7 +2846,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>166</v>
       </c>
@@ -2855,7 +2862,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
@@ -2879,23 +2886,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
     <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2915,7 +2922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>41542</v>
       </c>
@@ -2936,7 +2943,7 @@
         <v>18.715596330275229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>41548</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>18.830769230769231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41575</v>
       </c>
@@ -2986,26 +2993,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3063,7 +3070,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3092,7 +3099,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3121,7 +3128,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3150,7 +3157,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3179,7 +3186,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3208,7 +3215,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3237,7 +3244,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3295,7 +3302,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11">
         <f>SUM(G2:G10)</f>
         <v>170</v>
@@ -3305,51 +3312,51 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3362,19 +3369,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B14:B25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3403,7 +3410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3432,7 +3439,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3519,7 +3526,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3548,7 +3555,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -3577,7 +3584,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -3606,60 +3613,60 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>204</v>
       </c>
@@ -3672,21 +3679,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="23"/>
-    <col min="2" max="2" width="26.83203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3715,12 +3722,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>183</v>
@@ -3744,7 +3751,7 @@
         <v>41571</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>135</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>136</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>138</v>
       </c>
@@ -3831,7 +3838,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>144</v>
       </c>
@@ -3851,7 +3858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>148</v>
       </c>
@@ -3871,7 +3878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>146</v>
       </c>
@@ -3891,7 +3898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>147</v>
       </c>
@@ -3911,72 +3918,72 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="B20" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3986,19 +3993,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4027,12 +4034,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" t="s">
-        <v>208</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -4041,18 +4048,18 @@
         <v>156</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -4067,7 +4074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -4089,7 +4096,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>144</v>
       </c>
@@ -4109,7 +4116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>145</v>
       </c>
@@ -4136,22 +4143,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="27"/>
     <col min="2" max="2" width="28" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" style="29" customWidth="1"/>
     <col min="4" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>113</v>
       </c>
@@ -4162,7 +4169,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
@@ -4173,7 +4180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>115</v>
       </c>
@@ -4184,7 +4191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>116</v>
       </c>
@@ -4195,7 +4202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>117</v>
       </c>
@@ -4206,7 +4213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>118</v>
       </c>
@@ -4217,7 +4224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
@@ -4228,7 +4235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>120</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>121</v>
       </c>
@@ -4250,7 +4257,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>122</v>
       </c>
@@ -4261,7 +4268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>123</v>
       </c>
@@ -4272,7 +4279,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>124</v>
       </c>
@@ -4283,7 +4290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>125</v>
       </c>
@@ -4294,7 +4301,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>126</v>
       </c>
@@ -4305,7 +4312,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>127</v>
       </c>
@@ -4316,7 +4323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>128</v>
       </c>
@@ -4327,7 +4334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>129</v>
       </c>
@@ -4338,7 +4345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>130</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>131</v>
       </c>
@@ -4360,7 +4367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>132</v>
       </c>
@@ -4371,7 +4378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>133</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>134</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>135</v>
       </c>
@@ -4404,7 +4411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>136</v>
       </c>
@@ -4415,7 +4422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>137</v>
       </c>
@@ -4426,7 +4433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>138</v>
       </c>
@@ -4437,7 +4444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>139</v>
       </c>
@@ -4448,7 +4455,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>140</v>
       </c>
@@ -4459,7 +4466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>141</v>
       </c>
@@ -4470,7 +4477,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>142</v>
       </c>
@@ -4481,7 +4488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>143</v>
       </c>
@@ -4492,7 +4499,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>144</v>
       </c>
@@ -4503,7 +4510,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>145</v>
       </c>
@@ -4514,7 +4521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>146</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>147</v>
       </c>
@@ -4536,7 +4543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>148</v>
       </c>
@@ -4547,7 +4554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>149</v>
       </c>
@@ -4558,7 +4565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>150</v>
       </c>
@@ -4569,7 +4576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>151</v>
       </c>
@@ -4580,7 +4587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>152</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>153</v>
       </c>
@@ -4602,7 +4609,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>154</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>155</v>
       </c>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harish7KJ/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="95C124967119D58C1A5CB70E2C3913B13596791C" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{C11B710C-3E7D-4752-B331-C08EE9540B46}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="463" windowWidth="22740" windowHeight="14417" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="22740" windowHeight="14420" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="217">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -722,7 +721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1021,7 +1020,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1047,13 +1046,13 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542</c:v>
+                  <c:v>41542.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548</c:v>
+                  <c:v>41548.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,25 +1064,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5795-419D-BE09-C3BBDA1361DE}"/>
             </c:ext>
@@ -1099,28 +1098,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-691266256"/>
-        <c:axId val="-492224624"/>
+        <c:axId val="-747889648"/>
+        <c:axId val="-652759984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-691266256"/>
+        <c:axId val="-747889648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-492224624"/>
+        <c:crossAx val="-652759984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-492224624"/>
+        <c:axId val="-652759984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-691266256"/>
+        <c:crossAx val="-747889648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1142,14 +1141,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1175,16 +1174,16 @@
             <c:numRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542</c:v>
+                  <c:v>41542.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548</c:v>
+                  <c:v>41548.0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="m/d">
-                  <c:v>41575</c:v>
+                  <c:v>41575.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,19 +1195,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2CBE-44F9-A43F-F19DA2381D0D}"/>
             </c:ext>
@@ -1224,28 +1223,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-477506432"/>
-        <c:axId val="-507008592"/>
+        <c:axId val="-652987824"/>
+        <c:axId val="-652985504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-477506432"/>
+        <c:axId val="-652987824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-507008592"/>
+        <c:crossAx val="-652985504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-507008592"/>
+        <c:axId val="-652985504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-477506432"/>
+        <c:crossAx val="-652987824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1267,7 +1266,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1293,7 +1292,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1330,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1405,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1470,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1539,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1609,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1678,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1748,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,22 +2088,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.46484375" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2203,10 +2202,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2214,14 +2213,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -2230,7 +2229,7 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>124</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>125</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>129</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>133</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2535,7 +2534,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>139</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>143</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>145</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2716,54 +2715,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="7"/>
-    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2805,7 +2804,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>165</v>
       </c>
@@ -2846,7 +2845,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>166</v>
       </c>
@@ -2862,7 +2861,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
@@ -2886,23 +2885,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="18.1328125" customWidth="1"/>
-    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>41542</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>18.715596330275229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>41548</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>18.830769230769231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>41575</v>
       </c>
@@ -2993,26 +2992,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3157,7 +3156,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G11">
         <f>SUM(G2:G10)</f>
         <v>170</v>
@@ -3312,51 +3311,51 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3369,19 +3368,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -3613,60 +3612,60 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>204</v>
       </c>
@@ -3679,21 +3678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="23"/>
-    <col min="2" max="2" width="26.796875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>134</v>
       </c>
@@ -3751,7 +3750,7 @@
         <v>41571</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>135</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
         <v>136</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>138</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>144</v>
       </c>
@@ -3857,8 +3856,17 @@
       <c r="F6" s="24">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="24">
+        <v>10</v>
+      </c>
+      <c r="H6" s="24">
+        <v>30</v>
+      </c>
+      <c r="I6" s="30">
+        <v>41576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
         <v>148</v>
       </c>
@@ -3877,8 +3885,17 @@
       <c r="F7" s="24">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="24">
+        <v>15</v>
+      </c>
+      <c r="H7" s="24">
+        <v>45</v>
+      </c>
+      <c r="I7" s="30">
+        <v>41576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
         <v>146</v>
       </c>
@@ -3898,7 +3915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
         <v>147</v>
       </c>
@@ -3918,70 +3935,70 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="31" t="s">
         <v>216</v>
       </c>
@@ -3993,19 +4010,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4034,7 +4051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>155</v>
       </c>
@@ -4054,7 +4071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -4074,7 +4091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -4084,8 +4101,17 @@
       <c r="C4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -4095,8 +4121,17 @@
       <c r="C5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
         <v>144</v>
       </c>
@@ -4116,7 +4151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
         <v>145</v>
       </c>
@@ -4143,22 +4178,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="27"/>
     <col min="2" max="2" width="28" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.46484375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="29" customWidth="1"/>
     <col min="4" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>113</v>
       </c>
@@ -4169,7 +4204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
@@ -4180,7 +4215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
         <v>115</v>
       </c>
@@ -4191,7 +4226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
         <v>116</v>
       </c>
@@ -4202,7 +4237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>117</v>
       </c>
@@ -4213,7 +4248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
         <v>118</v>
       </c>
@@ -4224,7 +4259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
@@ -4235,7 +4270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>120</v>
       </c>
@@ -4246,7 +4281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
         <v>121</v>
       </c>
@@ -4257,7 +4292,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
         <v>122</v>
       </c>
@@ -4268,7 +4303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
         <v>123</v>
       </c>
@@ -4279,7 +4314,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
         <v>124</v>
       </c>
@@ -4290,7 +4325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
         <v>125</v>
       </c>
@@ -4301,7 +4336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
         <v>126</v>
       </c>
@@ -4312,7 +4347,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>127</v>
       </c>
@@ -4323,7 +4358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
         <v>128</v>
       </c>
@@ -4334,7 +4369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
         <v>129</v>
       </c>
@@ -4345,7 +4380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
         <v>130</v>
       </c>
@@ -4356,7 +4391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
         <v>131</v>
       </c>
@@ -4367,7 +4402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
         <v>132</v>
       </c>
@@ -4378,7 +4413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
         <v>133</v>
       </c>
@@ -4389,7 +4424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
         <v>134</v>
       </c>
@@ -4400,7 +4435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
         <v>135</v>
       </c>
@@ -4411,7 +4446,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
         <v>136</v>
       </c>
@@ -4422,7 +4457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="27" t="s">
         <v>137</v>
       </c>
@@ -4433,7 +4468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
         <v>138</v>
       </c>
@@ -4444,7 +4479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
         <v>139</v>
       </c>
@@ -4455,7 +4490,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
         <v>140</v>
       </c>
@@ -4466,7 +4501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" s="27" t="s">
         <v>141</v>
       </c>
@@ -4477,7 +4512,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>142</v>
       </c>
@@ -4488,7 +4523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="27" t="s">
         <v>143</v>
       </c>
@@ -4499,7 +4534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" s="27" t="s">
         <v>144</v>
       </c>
@@ -4510,7 +4545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="27" t="s">
         <v>145</v>
       </c>
@@ -4521,7 +4556,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" s="27" t="s">
         <v>146</v>
       </c>
@@ -4532,7 +4567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
         <v>147</v>
       </c>
@@ -4543,7 +4578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>148</v>
       </c>
@@ -4554,7 +4589,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>149</v>
       </c>
@@ -4565,7 +4600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>150</v>
       </c>
@@ -4576,7 +4611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
         <v>151</v>
       </c>
@@ -4587,7 +4622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
         <v>152</v>
       </c>
@@ -4598,7 +4633,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" s="27" t="s">
         <v>153</v>
       </c>
@@ -4609,7 +4644,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" s="27" t="s">
         <v>154</v>
       </c>
@@ -4620,7 +4655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" s="27" t="s">
         <v>155</v>
       </c>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vardaantyagi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harish7KJ/Desktop/ssw555-master-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="22740" windowHeight="14420" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="217">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1098,11 +1098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1730809872"/>
-        <c:axId val="-1730807552"/>
+        <c:axId val="-1204079376"/>
+        <c:axId val="-1204078016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1730809872"/>
+        <c:axId val="-1204079376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,14 +1112,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1730807552"/>
+        <c:crossAx val="-1204078016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1730807552"/>
+        <c:axId val="-1204078016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1730809872"/>
+        <c:crossAx val="-1204079376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1223,11 +1223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1730766688"/>
-        <c:axId val="-1730763936"/>
+        <c:axId val="-1206292736"/>
+        <c:axId val="-1177488352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1730766688"/>
+        <c:axId val="-1206292736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,14 +1237,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1730763936"/>
+        <c:crossAx val="-1177488352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1730763936"/>
+        <c:axId val="-1177488352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1730766688"/>
+        <c:crossAx val="-1206292736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1292,7 +1292,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1330,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1470,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1539,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1609,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1678,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1748,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3682,7 +3682,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4011,10 +4011,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4110,6 +4110,15 @@
       <c r="F4">
         <v>45</v>
       </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4" s="19">
+        <v>41583</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -4130,6 +4139,15 @@
       <c r="F5">
         <v>45</v>
       </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" s="19">
+        <v>41583</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
@@ -4169,6 +4187,24 @@
       </c>
       <c r="F7">
         <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4181,7 +4217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harish7KJ/Desktop/ssw555-master-7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="F8F5781F81411D2690ADB5D578A1944668529B6B" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{E9C72E0D-733C-4253-A3CB-BAF38FDEBBE9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="23451" windowHeight="11914" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="217">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -721,7 +722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1020,7 +1021,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1046,13 +1047,13 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,25 +1065,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5795-419D-BE09-C3BBDA1361DE}"/>
             </c:ext>
@@ -1108,7 +1109,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1141,14 +1142,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1174,16 +1175,16 @@
             <c:numRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41542.0</c:v>
+                  <c:v>41542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41548.0</c:v>
+                  <c:v>41548</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="m/d">
-                  <c:v>41575.0</c:v>
+                  <c:v>41575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,19 +1196,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2CBE-44F9-A43F-F19DA2381D0D}"/>
             </c:ext>
@@ -1233,7 +1234,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1266,7 +1267,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1292,7 +1293,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1330,7 +1331,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1406,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1471,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1540,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1610,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1679,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1749,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,22 +2089,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="5" width="20.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2202,10 +2203,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2213,14 +2214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
@@ -2229,7 +2230,7 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>124</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>125</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>129</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>133</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>139</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2643,18 +2644,24 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
       <c r="B31" t="s">
         <v>143</v>
       </c>
       <c r="C31" t="s">
         <v>99</v>
       </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
       <c r="E31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2668,7 +2675,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>145</v>
       </c>
@@ -2679,7 +2686,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2693,7 +2700,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2715,54 +2722,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -2785,7 +2792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2804,7 +2811,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>165</v>
       </c>
@@ -2845,7 +2852,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>166</v>
       </c>
@@ -2861,7 +2868,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
@@ -2885,23 +2892,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
     <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2921,7 +2928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>41542</v>
       </c>
@@ -2942,7 +2949,7 @@
         <v>18.715596330275229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>41548</v>
       </c>
@@ -2963,7 +2970,7 @@
         <v>18.830769230769231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>41575</v>
       </c>
@@ -2992,26 +2999,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3069,7 +3076,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3098,7 +3105,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3185,7 +3192,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3214,7 +3221,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3301,7 +3308,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11">
         <f>SUM(G2:G10)</f>
         <v>170</v>
@@ -3311,51 +3318,51 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3368,19 +3375,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3409,7 +3416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3438,7 +3445,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3496,7 +3503,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3525,7 +3532,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3554,7 +3561,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -3612,60 +3619,60 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>204</v>
       </c>
@@ -3678,21 +3685,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="23"/>
-    <col min="2" max="2" width="26.83203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3721,7 +3728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>134</v>
       </c>
@@ -3750,7 +3757,7 @@
         <v>41571</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>135</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>136</v>
       </c>
@@ -3808,7 +3815,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>138</v>
       </c>
@@ -3837,7 +3844,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>144</v>
       </c>
@@ -3866,7 +3873,7 @@
         <v>41576</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>148</v>
       </c>
@@ -3895,7 +3902,7 @@
         <v>41576</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>146</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>147</v>
       </c>
@@ -3935,70 +3942,70 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>216</v>
       </c>
@@ -4010,19 +4017,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4051,7 +4058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>155</v>
       </c>
@@ -4071,7 +4078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -4090,8 +4097,17 @@
       <c r="F3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3" s="19">
+        <v>41588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -4120,7 +4136,7 @@
         <v>41583</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -4149,7 +4165,7 @@
         <v>41583</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>129</v>
       </c>
@@ -4169,7 +4185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>145</v>
       </c>
@@ -4189,20 +4205,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
@@ -4214,22 +4230,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="27"/>
     <col min="2" max="2" width="28" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="49.46484375" style="29" customWidth="1"/>
     <col min="4" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>113</v>
       </c>
@@ -4240,7 +4256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
@@ -4251,7 +4267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>115</v>
       </c>
@@ -4262,7 +4278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>116</v>
       </c>
@@ -4273,7 +4289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>117</v>
       </c>
@@ -4284,7 +4300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>118</v>
       </c>
@@ -4295,7 +4311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
@@ -4306,7 +4322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>120</v>
       </c>
@@ -4317,7 +4333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>121</v>
       </c>
@@ -4328,7 +4344,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>122</v>
       </c>
@@ -4339,7 +4355,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>123</v>
       </c>
@@ -4350,7 +4366,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>124</v>
       </c>
@@ -4361,7 +4377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>125</v>
       </c>
@@ -4372,7 +4388,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>126</v>
       </c>
@@ -4383,7 +4399,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>127</v>
       </c>
@@ -4394,7 +4410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>128</v>
       </c>
@@ -4405,7 +4421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>129</v>
       </c>
@@ -4416,7 +4432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>130</v>
       </c>
@@ -4427,7 +4443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>131</v>
       </c>
@@ -4438,7 +4454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>132</v>
       </c>
@@ -4449,7 +4465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>133</v>
       </c>
@@ -4460,7 +4476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>134</v>
       </c>
@@ -4471,7 +4487,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>135</v>
       </c>
@@ -4482,7 +4498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>136</v>
       </c>
@@ -4493,7 +4509,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>137</v>
       </c>
@@ -4504,7 +4520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>138</v>
       </c>
@@ -4515,7 +4531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>139</v>
       </c>
@@ -4526,7 +4542,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>140</v>
       </c>
@@ -4537,7 +4553,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>141</v>
       </c>
@@ -4548,7 +4564,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>142</v>
       </c>
@@ -4559,7 +4575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>143</v>
       </c>
@@ -4570,7 +4586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>144</v>
       </c>
@@ -4581,7 +4597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>145</v>
       </c>
@@ -4592,7 +4608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>146</v>
       </c>
@@ -4603,7 +4619,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>147</v>
       </c>
@@ -4614,7 +4630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>148</v>
       </c>
@@ -4625,7 +4641,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
         <v>149</v>
       </c>
@@ -4636,7 +4652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>150</v>
       </c>
@@ -4647,7 +4663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
         <v>151</v>
       </c>
@@ -4658,7 +4674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>152</v>
       </c>
@@ -4669,7 +4685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>153</v>
       </c>
@@ -4680,7 +4696,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>154</v>
       </c>
@@ -4691,7 +4707,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>155</v>
       </c>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="F8F5781F81411D2690ADB5D578A1944668529B6B" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{E9C72E0D-733C-4253-A3CB-BAF38FDEBBE9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="F8F5781F81411D2690ADB5D578A1944668529B6B" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{1B53F71A-D6F0-4B35-828C-7B38037F0927}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="463" windowWidth="23451" windowHeight="11914" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="463" windowWidth="23451" windowHeight="11914" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="217">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2215,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2712,6 +2712,23 @@
       </c>
       <c r="E35" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4020,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -4076,6 +4093,15 @@
       </c>
       <c r="F2">
         <v>60</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="19">
+        <v>41588</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4234,7 +4260,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:C43"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>

--- a/khrwhjvtReport.xlsx
+++ b/khrwhjvtReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rweis\OneDrive\Stevens\SSW 555 - Agile\ssw555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slyst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="F8F5781F81411D2690ADB5D578A1944668529B6B" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{1B53F71A-D6F0-4B35-828C-7B38037F0927}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="463" windowWidth="23451" windowHeight="11914" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="6696" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="218">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -717,12 +716,15 @@
   </si>
   <si>
     <t>Writing bad unit tests</t>
+  </si>
+  <si>
+    <t>List recent Aniversarries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2089,22 +2091,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="165" zoomScaleNormal="165" zoomScalePageLayoutView="165" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.46484375" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>194</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2203,10 +2205,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2214,23 +2216,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2264,7 +2266,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2340,7 +2342,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2354,7 +2356,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>124</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>125</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2432,7 +2434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>129</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>130</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>131</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>133</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2566,7 +2568,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>139</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2616,7 +2618,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>145</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2714,7 +2716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2739,54 +2741,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="7"/>
-    <col min="2" max="2" width="9.46484375" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2828,7 +2830,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>165</v>
       </c>
@@ -2869,7 +2871,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>166</v>
       </c>
@@ -2885,7 +2887,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>167</v>
       </c>
@@ -2909,23 +2911,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="18.1328125" customWidth="1"/>
-    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
     <col min="4" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2945,7 +2947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>41542</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>18.715596330275229</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>41548</v>
       </c>
@@ -2987,7 +2989,7 @@
         <v>18.830769230769231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>41575</v>
       </c>
@@ -3016,26 +3018,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.46484375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
     <col min="9" max="9" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3064,7 +3066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -3122,7 +3124,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3180,7 +3182,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3238,7 +3240,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -3267,7 +3269,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G11">
         <f>SUM(G2:G10)</f>
         <v>170</v>
@@ -3335,51 +3337,51 @@
         <v>545</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
@@ -3392,19 +3394,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3433,7 +3435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3520,7 +3522,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -3636,60 +3638,60 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>204</v>
       </c>
@@ -3702,21 +3704,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="23"/>
-    <col min="2" max="2" width="26.796875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="23" customWidth="1"/>
     <col min="3" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>134</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>41571</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>135</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>136</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>138</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>41575</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>144</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>41576</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>148</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>41576</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>146</v>
       </c>
@@ -3939,7 +3941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>147</v>
       </c>
@@ -3959,70 +3961,70 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="24.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="31" t="s">
         <v>216</v>
       </c>
@@ -4034,19 +4036,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>155</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>41583</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -4191,7 +4193,7 @@
         <v>41583</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>129</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>145</v>
       </c>
@@ -4231,20 +4233,83 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" s="19">
+        <v>41590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10" s="19">
+        <v>41590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
@@ -4256,22 +4321,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="27"/>
     <col min="2" max="2" width="28" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.46484375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="29" customWidth="1"/>
     <col min="4" max="16384" width="11" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>113</v>
       </c>
@@ -4282,7 +4347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
@@ -4293,7 +4358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>115</v>
       </c>
@@ -4304,7 +4369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>116</v>
       </c>
@@ -4315,7 +4380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>117</v>
       </c>
@@ -4326,7 +4391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>118</v>
       </c>
@@ -4337,7 +4402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>119</v>
       </c>
@@ -4348,7 +4413,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>120</v>
       </c>
@@ -4359,7 +4424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>121</v>
       </c>
@@ -4370,7 +4435,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>122</v>
       </c>
@@ -4381,7 +4446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>123</v>
       </c>
@@ -4392,7 +4457,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>124</v>
       </c>
@@ -4403,7 +4468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>125</v>
       </c>
@@ -4414,7 +4479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>126</v>
       </c>
@@ -4425,7 +4490,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>127</v>
       </c>
@@ -4436,7 +4501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>128</v>
       </c>
@@ -4447,7 +4512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>129</v>
       </c>
@@ -4458,7 +4523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>130</v>
       </c>
@@ -4469,7 +4534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>131</v>
       </c>
@@ -4480,7 +4545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>132</v>
       </c>
@@ -4491,7 +4556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>133</v>
       </c>
@@ -4502,7 +4567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>134</v>
       </c>
@@ -4513,7 +4578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>135</v>
       </c>
@@ -4524,7 +4589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>136</v>
       </c>
@@ -4535,7 +4600,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>137</v>
       </c>
@@ -4546,7 +4611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>138</v>
       </c>
@@ -4557,7 +4622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>139</v>
       </c>
@@ -4568,7 +4633,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>140</v>
       </c>
@@ -4579,7 +4644,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>141</v>
       </c>
@@ -4590,7 +4655,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>142</v>
       </c>
@@ -4601,7 +4666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>143</v>
       </c>
@@ -4612,7 +4677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>144</v>
       </c>
@@ -4623,7 +4688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>145</v>
       </c>
@@ -4634,7 +4699,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>146</v>
       </c>
@@ -4645,7 +4710,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>147</v>
       </c>
@@ -4656,7 +4721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>148</v>
       </c>
@@ -4667,7 +4732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>149</v>
       </c>
@@ -4678,7 +4743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>150</v>
       </c>
@@ -4689,7 +4754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>151</v>
       </c>
@@ -4700,7 +4765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>152</v>
       </c>
@@ -4711,7 +4776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>153</v>
       </c>
@@ -4722,7 +4787,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>154</v>
       </c>
@@ -4733,7 +4798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>155</v>
       </c>
